--- a/dist/excel/write.xlsx
+++ b/dist/excel/write.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F245"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="C2" t="inlineStr">
@@ -469,6 +479,16 @@
           <t>Code 2</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Code 3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Code 4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="C3" t="inlineStr">
@@ -486,6 +506,16 @@
           <t>usename 2</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>usename 3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>usename 4</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="C4" t="inlineStr">
@@ -503,6 +533,16 @@
           <t>21:00:59</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>06:53:40</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>06:57:50</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
@@ -520,6 +560,16 @@
           <t>21:03:34</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>06:54:33</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>06:59:02</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
@@ -535,6 +585,16 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>26/03/2022</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>29/03/2022</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>29/03/2022</t>
         </is>
       </c>
     </row>
@@ -567,6 +627,16 @@
           <t>roman</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>fg</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +662,16 @@
           <t>vladislav</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>jakfl</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>432345</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -617,6 +697,16 @@
           <t>12/12/1998</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1/11/1111</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12/12/2000</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -642,6 +732,16 @@
           <t>female</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>jklgsd</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -667,6 +767,16 @@
           <t>412423</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>qjeijfsf</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>324 2354324</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -692,6 +802,16 @@
           <t>432143243</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>gjklwejrwert</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -722,6 +842,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -832,6 +962,16 @@
           <t>F</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2902,6 +3042,16 @@
           <t>B</t>
         </is>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -2927,6 +3077,16 @@
           <t>B</t>
         </is>
       </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -2942,6 +3102,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -2952,6 +3117,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -2967,6 +3137,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -2977,6 +3152,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -3002,6 +3182,16 @@
           <t>B</t>
         </is>
       </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -3027,6 +3217,16 @@
           <t>B</t>
         </is>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -3048,6 +3248,16 @@
         <v>183</v>
       </c>
       <c r="D189" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
         <is>
           <t>B</t>
         </is>
